--- a/ES2N-Requisitos_Funcionais_v1.04.xlsx
+++ b/ES2N-Requisitos_Funcionais_v1.04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke (Wise)\Desktop\FATEC\05 - SEMESTRE\ES2N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D20B6D-4D92-4260-8FCE-6546DD33A100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5C967E-6966-4AE5-9879-B49FA290D7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
   </bookViews>
@@ -280,7 +280,7 @@
     <t>Pesquisar serviço</t>
   </si>
   <si>
-    <t>Esse requisito permite o usuário pesquisar o serviços oferidos pelo site.</t>
+    <t>Esse requisito permite o usuário pesquisar o serviços oferecidos pelo site.</t>
   </si>
 </sst>
 </file>
@@ -606,6 +606,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,21 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +947,7 @@
   <dimension ref="B1:G36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,42 +962,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -1244,22 +1244,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="11" t="s">
@@ -1282,48 +1282,48 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1339,6 +1339,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000A4643FAE313FC459971E301E53A17B3" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="9d896a6183b33d71f2ecfd3476a201c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca07c7a1-fca5-423a-b69c-370f5f0c18f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3742ebf2b1be5011fe282bff0f53ee36" ns2:_="">
     <xsd:import namespace="ca07c7a1-fca5-423a-b69c-370f5f0c18f4"/>
@@ -1476,15 +1485,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1492,6 +1492,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D91BD0C-990D-45CA-B6FD-C9B8E79DE4A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1505,14 +1513,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
